--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.561656333333334</v>
+        <v>2.440259666666666</v>
       </c>
       <c r="N2">
-        <v>7.684969000000001</v>
+        <v>7.320779</v>
       </c>
       <c r="O2">
-        <v>0.6541172955779451</v>
+        <v>0.6045788173334784</v>
       </c>
       <c r="P2">
-        <v>0.654117295577945</v>
+        <v>0.6045788173334784</v>
       </c>
       <c r="Q2">
-        <v>10.56223249411078</v>
+        <v>0.1231241149015555</v>
       </c>
       <c r="R2">
-        <v>95.060092446997</v>
+        <v>1.108117034114</v>
       </c>
       <c r="S2">
-        <v>0.1903459933003209</v>
+        <v>0.002685825994105129</v>
       </c>
       <c r="T2">
-        <v>0.1903459933003209</v>
+        <v>0.002685825994105129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.174384</v>
       </c>
       <c r="O3">
-        <v>0.1850758515262657</v>
+        <v>0.1795692107559644</v>
       </c>
       <c r="P3">
-        <v>0.1850758515262656</v>
+        <v>0.1795692107559644</v>
       </c>
       <c r="Q3">
-        <v>2.988476510376888</v>
+        <v>0.03656975650488888</v>
       </c>
       <c r="R3">
-        <v>26.896288593392</v>
+        <v>0.329127808544</v>
       </c>
       <c r="S3">
-        <v>0.0538564673841007</v>
+        <v>0.000797731644182441</v>
       </c>
       <c r="T3">
-        <v>0.05385646738410069</v>
+        <v>0.000797731644182441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6297523333333334</v>
+        <v>0.8712426666666667</v>
       </c>
       <c r="N4">
-        <v>1.889257</v>
+        <v>2.613728</v>
       </c>
       <c r="O4">
-        <v>0.1608068528957894</v>
+        <v>0.2158519719105573</v>
       </c>
       <c r="P4">
-        <v>0.1608068528957894</v>
+        <v>0.2158519719105573</v>
       </c>
       <c r="Q4">
-        <v>2.596597549726777</v>
+        <v>0.04395883916088889</v>
       </c>
       <c r="R4">
-        <v>23.369377947541</v>
+        <v>0.395629552448</v>
       </c>
       <c r="S4">
-        <v>0.04679426817005825</v>
+        <v>0.0009589168862931678</v>
       </c>
       <c r="T4">
-        <v>0.04679426817005825</v>
+        <v>0.0009589168862931677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.300919</v>
       </c>
       <c r="I5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.561656333333334</v>
+        <v>2.440259666666666</v>
       </c>
       <c r="N5">
-        <v>7.684969000000001</v>
+        <v>7.320779</v>
       </c>
       <c r="O5">
-        <v>0.6541172955779451</v>
+        <v>0.6045788173334784</v>
       </c>
       <c r="P5">
-        <v>0.654117295577945</v>
+        <v>0.6045788173334784</v>
       </c>
       <c r="Q5">
-        <v>21.60408646516789</v>
+        <v>20.58027072176678</v>
       </c>
       <c r="R5">
-        <v>194.436778186511</v>
+        <v>185.222436495901</v>
       </c>
       <c r="S5">
-        <v>0.3893354269422951</v>
+        <v>0.4489374491295823</v>
       </c>
       <c r="T5">
-        <v>0.389335426942295</v>
+        <v>0.4489374491295823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.300919</v>
       </c>
       <c r="I6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.174384</v>
       </c>
       <c r="O6">
-        <v>0.1850758515262657</v>
+        <v>0.1795692107559644</v>
       </c>
       <c r="P6">
-        <v>0.1850758515262656</v>
+        <v>0.1795692107559644</v>
       </c>
       <c r="Q6">
         <v>6.112657050988443</v>
@@ -818,10 +818,10 @@
         <v>55.013913458896</v>
       </c>
       <c r="S6">
-        <v>0.110158508508817</v>
+        <v>0.1333413297120672</v>
       </c>
       <c r="T6">
-        <v>0.110158508508817</v>
+        <v>0.1333413297120672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.300919</v>
       </c>
       <c r="I7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6297523333333334</v>
+        <v>0.8712426666666667</v>
       </c>
       <c r="N7">
-        <v>1.889257</v>
+        <v>2.613728</v>
       </c>
       <c r="O7">
-        <v>0.1608068528957894</v>
+        <v>0.2158519719105573</v>
       </c>
       <c r="P7">
-        <v>0.1608068528957894</v>
+        <v>0.2158519719105573</v>
       </c>
       <c r="Q7">
-        <v>5.311104258575889</v>
+        <v>7.347746712892445</v>
       </c>
       <c r="R7">
-        <v>47.79993832718301</v>
+        <v>66.129720416032</v>
       </c>
       <c r="S7">
-        <v>0.09571342196679251</v>
+        <v>0.1602835410054811</v>
       </c>
       <c r="T7">
-        <v>0.09571342196679251</v>
+        <v>0.1602835410054811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H8">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.561656333333334</v>
+        <v>2.440259666666666</v>
       </c>
       <c r="N8">
-        <v>7.684969000000001</v>
+        <v>7.320779</v>
       </c>
       <c r="O8">
-        <v>0.6541172955779451</v>
+        <v>0.6045788173334784</v>
       </c>
       <c r="P8">
-        <v>0.654117295577945</v>
+        <v>0.6045788173334784</v>
       </c>
       <c r="Q8">
-        <v>4.130420649064779</v>
+        <v>7.011815283343666</v>
       </c>
       <c r="R8">
-        <v>37.173785841583</v>
+        <v>63.106337550093</v>
       </c>
       <c r="S8">
-        <v>0.07443587533532907</v>
+        <v>0.152955542209791</v>
       </c>
       <c r="T8">
-        <v>0.07443587533532904</v>
+        <v>0.152955542209791</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H9">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.174384</v>
       </c>
       <c r="O9">
-        <v>0.1850758515262657</v>
+        <v>0.1795692107559644</v>
       </c>
       <c r="P9">
-        <v>0.1850758515262656</v>
+        <v>0.1795692107559644</v>
       </c>
       <c r="Q9">
-        <v>1.168660611720889</v>
+        <v>2.082617022458666</v>
       </c>
       <c r="R9">
-        <v>10.517945505488</v>
+        <v>18.743553202128</v>
       </c>
       <c r="S9">
-        <v>0.02106087563334792</v>
+        <v>0.04543014939971473</v>
       </c>
       <c r="T9">
-        <v>0.02106087563334791</v>
+        <v>0.04543014939971473</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H10">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6297523333333334</v>
+        <v>0.8712426666666667</v>
       </c>
       <c r="N10">
-        <v>1.889257</v>
+        <v>2.613728</v>
       </c>
       <c r="O10">
-        <v>0.1608068528957894</v>
+        <v>0.2158519719105573</v>
       </c>
       <c r="P10">
-        <v>0.1608068528957894</v>
+        <v>0.2158519719105573</v>
       </c>
       <c r="Q10">
-        <v>1.015414131688778</v>
+        <v>2.503419094730667</v>
       </c>
       <c r="R10">
-        <v>9.138727185199002</v>
+        <v>22.530771852576</v>
       </c>
       <c r="S10">
-        <v>0.01829916275893862</v>
+        <v>0.05460951401878307</v>
       </c>
       <c r="T10">
-        <v>0.01829916275893862</v>
+        <v>0.05460951401878306</v>
       </c>
     </row>
   </sheetData>
